--- a/Put Portfolios/Three Months_TwoSigma.xlsx
+++ b/Put Portfolios/Three Months_TwoSigma.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>601048.9904083076</v>
+        <v>559121.8240280959</v>
       </c>
       <c r="E2" t="n">
-        <v>-388387.7397220153</v>
+        <v>-427365.3705955532</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>530374.9382561417</v>
+        <v>491625.4650485752</v>
       </c>
       <c r="E3" t="n">
-        <v>-388387.7397220153</v>
+        <v>-426355.6743928759</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>459700.8861039758</v>
+        <v>425259.6591839576</v>
       </c>
       <c r="E4" t="n">
-        <v>-388387.7397220154</v>
+        <v>-424215.4250752958</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>389026.8339518099</v>
+        <v>360799.8934269036</v>
       </c>
       <c r="E5" t="n">
-        <v>-388387.7397220153</v>
+        <v>-420169.1356501519</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>318352.7817996439</v>
+        <v>299219.500434306</v>
       </c>
       <c r="E6" t="n">
-        <v>-388387.7397220153</v>
+        <v>-413243.4734605517</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>247678.729647478</v>
+        <v>241585.7771205562</v>
       </c>
       <c r="E7" t="n">
-        <v>-388387.7397220153</v>
+        <v>-402371.1415921036</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>177004.677498599</v>
+        <v>188913.6818173936</v>
       </c>
       <c r="E8" t="n">
-        <v>-388387.7397187283</v>
+        <v>-386537.1817130683</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>106331.0227242469</v>
+        <v>142016.4961684538</v>
       </c>
       <c r="E9" t="n">
-        <v>-388387.3423409146</v>
+        <v>-364928.3121798103</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>36173.95808067897</v>
+        <v>101393.1529695722</v>
       </c>
       <c r="E10" t="n">
-        <v>-387870.3548323166</v>
+        <v>-337045.600196494</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-16096.57277315807</v>
+        <v>67177.23085571939</v>
       </c>
       <c r="E11" t="n">
-        <v>-369466.8335339877</v>
+        <v>-302755.467128149</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-26059.12229556377</v>
+        <v>39151.5664750966</v>
       </c>
       <c r="E12" t="n">
-        <v>-308755.3309042274</v>
+        <v>-262275.0763265738</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-26228.89837335018</v>
+        <v>16814.43864666784</v>
       </c>
       <c r="E13" t="n">
-        <v>-238251.054829848</v>
+        <v>-216106.1489728048</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-26229.05788112385</v>
+        <v>-526.1278627284138</v>
       </c>
       <c r="E14" t="n">
-        <v>-167577.1621854557</v>
+        <v>-164940.6603000032</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-26229.05788917574</v>
+        <v>-13653.67361701955</v>
       </c>
       <c r="E15" t="n">
-        <v>-96903.11004134166</v>
+        <v>-109562.1508720965</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-26229.05788917574</v>
+        <v>-23358.01200911707</v>
       </c>
       <c r="E16" t="n">
-        <v>-26229.05788917574</v>
+        <v>-50760.43408199612</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-26229.05788917574</v>
+        <v>-30372.82599326191</v>
       </c>
       <c r="E17" t="n">
-        <v>44444.99426299019</v>
+        <v>10730.8071160569</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26229.05788917574</v>
+        <v>-35338.13528984944</v>
       </c>
       <c r="E18" t="n">
-        <v>115119.0464151561</v>
+        <v>74271.55300166723</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-26229.05788917574</v>
+        <v>-38784.49045874106</v>
       </c>
       <c r="E19" t="n">
-        <v>185793.098567322</v>
+        <v>139331.2530149735</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-26229.05788917574</v>
+        <v>-41133.27264002102</v>
       </c>
       <c r="E20" t="n">
-        <v>256467.150719488</v>
+        <v>205488.5260158914</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-26229.05788917574</v>
+        <v>-42707.09388265356</v>
       </c>
       <c r="E21" t="n">
-        <v>327141.2028716539</v>
+        <v>272420.7599554567</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-26229.05788917574</v>
+        <v>-43745.17412741133</v>
       </c>
       <c r="E22" t="n">
-        <v>397815.2550238199</v>
+        <v>339888.7348928968</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-26229.05788917574</v>
+        <v>-44419.96997571758</v>
       </c>
       <c r="E23" t="n">
-        <v>468489.3071759858</v>
+        <v>407719.9942267883</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-26229.05788917574</v>
+        <v>-44852.73540956782</v>
       </c>
       <c r="E24" t="n">
-        <v>539163.3593281517</v>
+        <v>475793.283975136</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-26229.05788917574</v>
+        <v>-45126.83861885165</v>
       </c>
       <c r="E25" t="n">
-        <v>609837.4114803176</v>
+        <v>544025.23594805</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-26229.05788917574</v>
+        <v>-45298.45969392303</v>
       </c>
       <c r="E26" t="n">
-        <v>680511.4636324835</v>
+        <v>612359.6700551765</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-26229.05788917574</v>
+        <v>-45404.77790994728</v>
       </c>
       <c r="E27" t="n">
-        <v>751185.5157846494</v>
+        <v>680759.4070213501</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>621728.0189541854</v>
+        <v>624929.2788218296</v>
       </c>
       <c r="E2" t="n">
-        <v>-388193.9436840117</v>
+        <v>-434463.4424177365</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>575294.8252696707</v>
+        <v>582506.9184873663</v>
       </c>
       <c r="E3" t="n">
-        <v>-388193.9436840116</v>
+        <v>-433645.2835179318</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>528861.6315851558</v>
+        <v>540474.1479546892</v>
       </c>
       <c r="E4" t="n">
-        <v>-388193.9436840117</v>
+        <v>-432437.5348163409</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>482428.437900641</v>
+        <v>498955.4840521828</v>
       </c>
       <c r="E5" t="n">
-        <v>-388193.9436840117</v>
+        <v>-430715.6794845793</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>435995.2442161262</v>
+        <v>458092.9676275657</v>
       </c>
       <c r="E6" t="n">
-        <v>-388193.9436840116</v>
+        <v>-428337.6766749284</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>389562.0505316114</v>
+        <v>418042.5767608612</v>
       </c>
       <c r="E7" t="n">
-        <v>-388193.9436840116</v>
+        <v>-425147.5483073649</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>343128.8568470966</v>
+        <v>378969.3586275222</v>
       </c>
       <c r="E8" t="n">
-        <v>-388193.9436840116</v>
+        <v>-420980.2472064359</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>296695.6631625818</v>
+        <v>341041.6416621301</v>
       </c>
       <c r="E9" t="n">
-        <v>-388193.9436840116</v>
+        <v>-415667.4449375599</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>250262.4694780696</v>
+        <v>304424.7786213573</v>
       </c>
       <c r="E10" t="n">
-        <v>-388193.943684009</v>
+        <v>-409043.7887440648</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>203829.2757990864</v>
+        <v>269274.9007483881</v>
       </c>
       <c r="E11" t="n">
-        <v>-388193.9436784775</v>
+        <v>-400953.147382766</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>157396.0850855347</v>
+        <v>235733.1361339811</v>
       </c>
       <c r="E12" t="n">
-        <v>-388193.9407075143</v>
+        <v>-391254.392762905</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110963.3705769122</v>
+        <v>203920.6722160139</v>
       </c>
       <c r="E13" t="n">
-        <v>-388193.461531622</v>
+        <v>-379826.3374466041</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>64555.93736638347</v>
+        <v>173934.9385665492</v>
       </c>
       <c r="E14" t="n">
-        <v>-388167.7010576359</v>
+        <v>-366571.5518618008</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>18634.44145940458</v>
+        <v>145847.068471127</v>
       </c>
       <c r="E15" t="n">
-        <v>-387656.0032801</v>
+        <v>-351418.9027229551</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-23622.45129290611</v>
+        <v>119700.681691852</v>
       </c>
       <c r="E16" t="n">
-        <v>-383479.7023478959</v>
+        <v>-334324.7702679621</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-54278.35206818487</v>
+        <v>95511.9283346552</v>
       </c>
       <c r="E17" t="n">
-        <v>-367702.4094386598</v>
+        <v>-315273.0043908909</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-68658.26891841509</v>
+        <v>73270.65286627597</v>
       </c>
       <c r="E18" t="n">
-        <v>-335649.1326043752</v>
+        <v>-294273.7606250021</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-72478.32001478592</v>
+        <v>52942.48180869782</v>
       </c>
       <c r="E19" t="n">
-        <v>-293035.9900162313</v>
+        <v>-271361.4124483122</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-73020.18823525756</v>
+        <v>34471.60861236417</v>
       </c>
       <c r="E20" t="n">
-        <v>-247144.6645521881</v>
+        <v>-246591.7664103779</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-73060.63344864828</v>
+        <v>17784.0420872996</v>
       </c>
       <c r="E21" t="n">
-        <v>-200751.916081064</v>
+        <v>-220038.8137011744</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-73062.23425314714</v>
+        <v>2791.096252324876</v>
       </c>
       <c r="E22" t="n">
-        <v>-154320.3232010481</v>
+        <v>-191791.2403018811</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-73062.26848607215</v>
+        <v>-10607.0755321075</v>
       </c>
       <c r="E23" t="n">
-        <v>-107887.1637494583</v>
+        <v>-161948.8928520455</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-73062.26889125636</v>
+        <v>-22518.06585041698</v>
       </c>
       <c r="E24" t="n">
-        <v>-61453.97047012766</v>
+        <v>-130619.363936087</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-73062.26889398212</v>
+        <v>-33054.04436258754</v>
       </c>
       <c r="E25" t="n">
-        <v>-15020.77678833861</v>
+        <v>-97914.82321398956</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-73062.26889399286</v>
+        <v>-42328.92382190668</v>
       </c>
       <c r="E26" t="n">
-        <v>31412.41689616547</v>
+        <v>-63949.18343904069</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-73062.2688939928</v>
+        <v>-50455.91531249821</v>
       </c>
       <c r="E27" t="n">
-        <v>77845.61058068032</v>
+        <v>-28835.65569536421</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-73062.2688939928</v>
+        <v>-57545.4968222782</v>
       </c>
       <c r="E28" t="n">
-        <v>124278.8042651951</v>
+        <v>7315.282029123817</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-73062.2688939928</v>
+        <v>-63703.79451693325</v>
       </c>
       <c r="E29" t="n">
-        <v>170711.9979497099</v>
+        <v>44397.50356873676</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-73062.2688939928</v>
+        <v>-69031.35708332578</v>
       </c>
       <c r="E30" t="n">
-        <v>217145.1916342247</v>
+        <v>82310.46023661226</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-73062.2688939928</v>
+        <v>-73622.29004054515</v>
       </c>
       <c r="E31" t="n">
-        <v>263578.3853187395</v>
+        <v>120960.0465136609</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-73062.2688939928</v>
+        <v>-77563.70840542678</v>
       </c>
       <c r="E32" t="n">
-        <v>310011.5790032544</v>
+        <v>160259.1473830473</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-73062.2688939928</v>
+        <v>-80935.46178392251</v>
       </c>
       <c r="E33" t="n">
-        <v>356444.7726877691</v>
+        <v>200127.9132388195</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-73062.2688939928</v>
+        <v>-83810.0850007441</v>
       </c>
       <c r="E34" t="n">
-        <v>402877.9663722839</v>
+        <v>240493.8092562659</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-73062.2688939928</v>
+        <v>-86252.92894871722</v>
       </c>
       <c r="E35" t="n">
-        <v>449311.1600567988</v>
+        <v>281291.4845425609</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-73062.2688939928</v>
+        <v>-88322.42967700673</v>
       </c>
       <c r="E36" t="n">
-        <v>495744.3537413136</v>
+        <v>322462.5030485393</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-73062.2688939928</v>
+        <v>-90070.47818834322</v>
       </c>
       <c r="E37" t="n">
-        <v>542177.5474258285</v>
+        <v>363954.9737714708</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-73062.2688939928</v>
+        <v>-91542.85844249482</v>
       </c>
       <c r="E38" t="n">
-        <v>588610.7411103433</v>
+        <v>405723.1127515873</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-73062.2688939928</v>
+        <v>-92779.72624906985</v>
       </c>
       <c r="E39" t="n">
-        <v>635043.9347948581</v>
+        <v>447726.7641792802</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-73062.2688939928</v>
+        <v>-93816.10677085313</v>
       </c>
       <c r="E40" t="n">
-        <v>681477.1284793729</v>
+        <v>489930.9028917649</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-73062.2688939928</v>
+        <v>-94682.39304006584</v>
       </c>
       <c r="E41" t="n">
-        <v>727910.3221638878</v>
+        <v>532305.1358568203</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-73062.2688939928</v>
+        <v>-95404.83208567917</v>
       </c>
       <c r="E42" t="n">
-        <v>774343.5158484025</v>
+        <v>574823.2160454749</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-73062.2688939928</v>
+        <v>-96005.98891574534</v>
       </c>
       <c r="E43" t="n">
-        <v>820776.7095329172</v>
+        <v>617462.5784496767</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-73062.2688939928</v>
+        <v>-96505.1816782267</v>
       </c>
       <c r="E44" t="n">
-        <v>867209.9032174322</v>
+        <v>660203.9049214633</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-73062.2688939928</v>
+        <v>-96918.88385508562</v>
       </c>
       <c r="E45" t="n">
-        <v>913643.0969019469</v>
+        <v>703030.7219788725</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-73062.2688939928</v>
+        <v>-97261.09136805157</v>
       </c>
       <c r="E46" t="n">
-        <v>960076.2905864617</v>
+        <v>745929.0337001745</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-73062.2688939928</v>
+        <v>-97543.65404459467</v>
       </c>
       <c r="E47" t="n">
-        <v>1006509.484270977</v>
+        <v>788886.9902578995</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-73062.2688939928</v>
+        <v>-97776.57206945645</v>
       </c>
       <c r="E48" t="n">
-        <v>1052942.677955491</v>
+        <v>831894.5914673057</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-73062.2688939928</v>
+        <v>-97968.25889190836</v>
       </c>
       <c r="E49" t="n">
-        <v>1099375.871640006</v>
+        <v>874943.4238791218</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98125.77263048028</v>
       </c>
       <c r="E50" t="n">
-        <v>1145809.065324521</v>
+        <v>918026.4293748179</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98255.01836913482</v>
       </c>
       <c r="E51" t="n">
-        <v>1192242.259009036</v>
+        <v>961137.7028704312</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98360.92391958287</v>
       </c>
       <c r="E52" t="n">
-        <v>1238675.452693551</v>
+        <v>1004272.316554251</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98447.59167489639</v>
       </c>
       <c r="E53" t="n">
-        <v>1285108.646378065</v>
+        <v>1047426.168033206</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98518.42913444505</v>
       </c>
       <c r="E54" t="n">
-        <v>1331541.84006258</v>
+        <v>1090595.849807925</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98576.26056791913</v>
       </c>
       <c r="E55" t="n">
-        <v>1377975.033747095</v>
+        <v>1133778.537608719</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98623.42212965441</v>
       </c>
       <c r="E56" t="n">
-        <v>1424408.22743161</v>
+        <v>1176971.895281252</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98661.8425515463</v>
       </c>
       <c r="E57" t="n">
-        <v>1470841.421116125</v>
+        <v>1220173.994093628</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98693.11134717865</v>
       </c>
       <c r="E58" t="n">
-        <v>1517274.614800639</v>
+        <v>1263383.244532264</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98718.5362615691</v>
       </c>
       <c r="E59" t="n">
-        <v>1563707.808485154</v>
+        <v>1306598.338852141</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98739.19150736839</v>
       </c>
       <c r="E60" t="n">
-        <v>1610141.002169669</v>
+        <v>1349818.20284061</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98755.95814441178</v>
       </c>
       <c r="E61" t="n">
-        <v>1656574.195854184</v>
+        <v>1393041.955437835</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-73062.2688939928</v>
+        <v>-98769.55778833994</v>
       </c>
       <c r="E62" t="n">
-        <v>1703007.389538699</v>
+        <v>1436268.875028174</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>935999.3478596919</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-370196.4841119224</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>899445.4261126489</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-370193.0078188978</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>862891.5043656058</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-370189.5315258736</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>826337.5826185629</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-370186.0552328489</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>789783.6608715197</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-370182.5789398244</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>753229.7391244767</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-370179.1026467998</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>716675.8173774336</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-370175.6263537752</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>680121.8956303906</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-370172.1500607505</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>643567.9738833476</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-370168.6737677263</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>607014.0521363044</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-370165.1974747018</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>570460.1303892614</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-370161.7211816772</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>533906.2086422184</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-370158.2448886527</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>497352.2868951753</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-370154.7685956281</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>460798.3651481322</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-370151.2923026037</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>424244.4434010892</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-370147.8160095792</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>387690.5216540462</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-370144.3397165546</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>351136.5999070031</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-370140.8634235302</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>314582.6781599601</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-370137.3871305056</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>278028.756412917</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-370133.910837481</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>241474.8346658739</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-370130.4345444565</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>204920.9129188995</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-370126.9582513635</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>168366.9912114408</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-370123.4819187546</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>131813.0777911422</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-370119.9972989857</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>95259.83937832409</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-370115.8376717362</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>58729.29293082024</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-370088.9860791725</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22531.79218197277</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-369729.0887879524</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-11421.06396516243</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-367124.54689502</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-38114.8091978966</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-357260.8940876866</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-53118.8033727749</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-335707.4902224974</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-58456.30793482288</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-304487.5967444777</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-59582.19849886906</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-269056.0892684564</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-59719.44810486513</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-232635.9408343849</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-59729.07908627827</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-196088.1737757305</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-59729.47101944509</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-159531.1676688297</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-59729.48039456612</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-122973.7790038832</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-59729.48052858845</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-86416.38109783792</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-59729.48052975448</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-49858.98305893638</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-59729.48052976077</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-13301.58501887511</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>23255.81302119244</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>59813.21106125999</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>96370.60910132757</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>132928.0071413951</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>169485.4051814627</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>206042.8032215303</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>242600.2012615978</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>279157.5993016654</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>315714.997341733</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>352272.3953818005</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>388829.7934218681</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>425387.1914619356</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>461944.5895020032</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>498501.9875420708</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>535059.3855821383</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>571616.783622206</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>608174.1816622735</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>644731.579702341</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>681288.9777424086</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>717846.3757824762</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>754403.7738225438</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>790961.1718626113</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>827518.569902679</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>864075.9679427464</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>900633.365982814</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>937190.7640228815</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>973748.1620629492</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1010305.560103017</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1046862.958143084</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1083420.356183152</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1119977.75422322</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1156535.152263287</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-59729.4805297608</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1193092.550303355</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>317819.7370324676</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-597038.9742303231</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>258303.0346193757</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-597033.3141669809</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>198786.3336396842</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-597027.6526702384</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>139270.3906543351</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-597021.2331791535</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>79830.73492970278</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-596938.5264273519</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22182.20787951978</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-595064.6910011008</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-23805.56822144011</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-581530.1046256267</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-45791.51095617815</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-543993.6848839307</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50703.42000158325</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-489383.2314529018</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-51165.50370631794</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-430322.9526812024</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-51183.51730511084</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-370818.6038035614</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-51183.81572959536</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-311296.5397516118</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-51183.81792371168</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-251774.1794692941</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-51183.81793124185</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-192251.8170003903</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-51183.81793125456</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-132729.454523969</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-73207.09204753501</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-13684.72957110099</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>45837.63290533302</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>105359.995381767</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>164882.3578582011</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>224404.7203346351</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>283927.0828110691</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>343449.4452875031</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>402971.8077639371</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>462494.1702403711</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>522016.5327168052</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>581538.8951932391</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>641061.2576696732</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>700583.6201461072</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>760105.9826225413</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>819628.3450989752</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>879150.7075754092</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>938673.0700518433</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>998195.4325282774</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1057717.795004711</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1117240.157481145</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1176762.519957579</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1236284.882434014</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1295807.244910447</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1355329.607386881</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1414851.969863315</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1474374.332339749</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1533896.694816184</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1593419.057292617</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1652941.419769051</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-51183.81793125458</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1712463.782245486</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>399429.5970380086</v>
+        <v>287207.5491861902</v>
       </c>
       <c r="E2" t="n">
-        <v>-271767.0240323962</v>
+        <v>-350162.804290223</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>330383.1492820628</v>
+        <v>231953.8753673599</v>
       </c>
       <c r="E3" t="n">
-        <v>-271760.3214724567</v>
+        <v>-337175.5409060112</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>261336.701526117</v>
+        <v>180548.3432524583</v>
       </c>
       <c r="E4" t="n">
-        <v>-271753.6189125173</v>
+        <v>-320340.1358178708</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>192290.2537701727</v>
+        <v>133392.8235748457</v>
       </c>
       <c r="E5" t="n">
-        <v>-271746.9163525762</v>
+        <v>-299254.7182924412</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>123243.8063279293</v>
+        <v>90751.78197897841</v>
       </c>
       <c r="E6" t="n">
-        <v>-271740.2134789344</v>
+        <v>-273654.8226852665</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>54199.13772546914</v>
+        <v>52740.95401618265</v>
       </c>
       <c r="E7" t="n">
-        <v>-271731.7317655092</v>
+        <v>-243424.7134450202</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14335.92127904652</v>
+        <v>19331.25840017388</v>
       </c>
       <c r="E8" t="n">
-        <v>-271213.6404541396</v>
+        <v>-208593.4718579868</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-70844.03146907226</v>
+        <v>-9635.00901243589</v>
       </c>
       <c r="E9" t="n">
-        <v>-258668.6003282801</v>
+        <v>-169318.8020675546</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-90656.82123873802</v>
+        <v>-34419.78956471768</v>
       </c>
       <c r="E10" t="n">
-        <v>-209428.2397820606</v>
+        <v>-125862.6454167943</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-92163.06710904863</v>
+        <v>-55360.93542446039</v>
       </c>
       <c r="E11" t="n">
-        <v>-141881.3353364859</v>
+        <v>-78562.85407349492</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-92181.07945897036</v>
+        <v>-72843.64772860073</v>
       </c>
       <c r="E12" t="n">
-        <v>-72846.19737052241</v>
+        <v>-27804.6291745932</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-92181.11097580737</v>
+        <v>-87274.44853059786</v>
       </c>
       <c r="E13" t="n">
-        <v>-3793.078571474151</v>
+        <v>26005.50722645174</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-92181.11098432471</v>
+        <v>-99059.41159533514</v>
       </c>
       <c r="E14" t="n">
-        <v>65260.07173589378</v>
+        <v>82461.48136475653</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-92181.11098432512</v>
+        <v>-108587.4254254568</v>
       </c>
       <c r="E15" t="n">
-        <v>134313.2220517786</v>
+        <v>141174.404737677</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-92181.11098432512</v>
+        <v>-116218.5140748702</v>
       </c>
       <c r="E16" t="n">
-        <v>203366.3723676639</v>
+        <v>201784.2532913057</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-92181.11098432512</v>
+        <v>-122276.7332400921</v>
       </c>
       <c r="E17" t="n">
-        <v>272419.5226835491</v>
+        <v>263966.9713291257</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-92181.11098432512</v>
+        <v>-127046.8751032246</v>
       </c>
       <c r="E18" t="n">
-        <v>341472.6729994344</v>
+        <v>327437.7666690354</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-92181.11098432512</v>
+        <v>-130774.1117434751</v>
       </c>
       <c r="E19" t="n">
-        <v>410525.8233153197</v>
+        <v>391951.4672318269</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-92181.11098432512</v>
+        <v>-133665.7306873635</v>
       </c>
       <c r="E20" t="n">
-        <v>479578.973631205</v>
+        <v>457300.7854909805</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-92181.11098432512</v>
+        <v>-135894.21737137</v>
       </c>
       <c r="E21" t="n">
-        <v>548632.1239470902</v>
+        <v>523313.2360100162</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-92181.11098432512</v>
+        <v>-137601.0773615124</v>
       </c>
       <c r="E22" t="n">
-        <v>617685.2742629754</v>
+        <v>589847.313222916</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-92181.11098432512</v>
+        <v>-138900.9369365241</v>
       </c>
       <c r="E23" t="n">
-        <v>686738.4245788606</v>
+        <v>656788.3908509463</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-92181.11098432512</v>
+        <v>-139885.5956468291</v>
       </c>
       <c r="E24" t="n">
-        <v>755791.5748947458</v>
+        <v>724044.6693436832</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-92181.11098432512</v>
+        <v>-140627.8189658377</v>
       </c>
       <c r="E25" t="n">
-        <v>824844.7252106313</v>
+        <v>791543.3832277168</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-92181.11098432512</v>
+        <v>-141184.7496997967</v>
       </c>
       <c r="E26" t="n">
-        <v>893897.8755265165</v>
+        <v>859227.3896967999</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-92181.11098432512</v>
+        <v>-141600.88401756</v>
       </c>
       <c r="E27" t="n">
-        <v>962951.0258424017</v>
+        <v>927052.1925820786</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-92181.11098432512</v>
+        <v>-141910.6046556717</v>
       </c>
       <c r="E28" t="n">
-        <v>1032004.176158287</v>
+        <v>994983.409147009</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142140.2938557556</v>
       </c>
       <c r="E29" t="n">
-        <v>1101057.326474172</v>
+        <v>1062994.657149967</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142310.0658215531</v>
       </c>
       <c r="E30" t="n">
-        <v>1170110.476790057</v>
+        <v>1131065.822387212</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142435.1664944707</v>
       </c>
       <c r="E31" t="n">
-        <v>1239163.627105943</v>
+        <v>1199181.658917336</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142527.0902005146</v>
       </c>
       <c r="E32" t="n">
-        <v>1308216.777421828</v>
+        <v>1267330.672414334</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142594.4605339337</v>
       </c>
       <c r="E33" t="n">
-        <v>1377269.927737713</v>
+        <v>1335504.239283958</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142643.7184273129</v>
       </c>
       <c r="E34" t="n">
-        <v>1446323.078053599</v>
+        <v>1403695.91859362</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142679.6549156328</v>
       </c>
       <c r="E35" t="n">
-        <v>1515376.228369484</v>
+        <v>1471900.919308342</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-92181.11098432512</v>
+        <v>-142705.820426931</v>
       </c>
       <c r="E36" t="n">
-        <v>1584429.378685369</v>
+        <v>1540115.691000086</v>
       </c>
     </row>
   </sheetData>
